--- a/v3/example/xlsx/Data.xlsx
+++ b/v3/example/xlsx/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="15420"/>
+    <workbookView windowWidth="28125" windowHeight="14910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -37,13 +37,7 @@
     <t>狂鼠</t>
   </si>
   <si>
-    <t>1|2</t>
-  </si>
-  <si>
     <t>阿努比斯神庙</t>
-  </si>
-  <si>
-    <t>100|9|86</t>
   </si>
   <si>
     <t>法鸡</t>
@@ -54,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -86,9 +80,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,21 +140,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,77 +169,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,8 +185,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -217,14 +210,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,187 +239,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +448,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -465,6 +498,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,25 +526,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -516,41 +545,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -559,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,133 +565,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,20 +1030,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="6" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1068,8 +1062,11 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:7">
       <c r="A2" s="3">
         <v>100</v>
       </c>
@@ -1085,93 +1082,110 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:6">
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="3">
         <v>200</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>1.2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
+      <c r="D3" s="3">
+        <v>100</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:6">
+      <c r="G3" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:6">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="F5" s="3"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:6">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:6">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="F7" s="4"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:6">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="F8" s="4"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:6">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="F9" s="4"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:6">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="F10" s="4"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:6">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="F11" s="4"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:6">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:6">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="F13" s="4"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:6">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/v3/example/xlsx/Data.xlsx
+++ b/v3/example/xlsx/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14910"/>
+    <workbookView windowWidth="16590" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -31,10 +31,19 @@
     <t>类型</t>
   </si>
   <si>
+    <t>增益</t>
+  </si>
+  <si>
+    <t>标记</t>
+  </si>
+  <si>
     <t>扎克镇</t>
   </si>
   <si>
     <t>狂鼠</t>
+  </si>
+  <si>
+    <t>a|b</t>
   </si>
   <si>
     <t>阿努比斯神庙</t>
@@ -42,16 +51,19 @@
   <si>
     <t>法鸡</t>
   </si>
+  <si>
+    <t>c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -81,6 +93,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -88,7 +130,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,21 +152,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,37 +168,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,9 +181,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,37 +235,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -239,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,15 +460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -468,6 +471,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,9 +525,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,20 +551,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,20 +1042,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="6" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1065,13 +1077,19 @@
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="3">
         <v>100</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>3.14</v>
@@ -1080,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -1088,13 +1106,19 @@
       <c r="G2" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:7">
+      <c r="H2" s="3">
+        <v>100</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="3">
         <v>200</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>1.2</v>
@@ -1103,11 +1127,17 @@
         <v>100</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
         <v>90</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">

--- a/v3/example/xlsx/Data.xlsx
+++ b/v3/example/xlsx/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16590" windowHeight="6510"/>
+    <workbookView windowWidth="19830" windowHeight="6375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>标记</t>
+  </si>
+  <si>
+    <t>多列</t>
   </si>
   <si>
     <t>扎克镇</t>
@@ -74,6 +77,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -81,18 +90,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -107,9 +117,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,22 +170,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,15 +194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,16 +215,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,33 +231,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,19 +254,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,13 +368,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,145 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +487,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -522,41 +560,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,147 +580,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1042,180 +1048,196 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="6" max="7" width="13.5" customWidth="1"/>
+    <col min="10" max="11" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:9">
-      <c r="A2" s="3">
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4">
         <v>100</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4">
         <v>3.14</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>2</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>100</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:9">
-      <c r="A3" s="3">
+      <c r="I2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4">
         <v>200</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4">
         <v>1.2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>100</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
         <v>90</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/v3/example/xlsx/Data.xlsx
+++ b/v3/example/xlsx/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19830" windowHeight="6375"/>
+    <workbookView windowWidth="30048" windowHeight="13728"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>比例</t>
+  </si>
+  <si>
+    <t>精度</t>
   </si>
   <si>
     <t>技能列表</t>
@@ -64,8 +67,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -95,23 +98,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,25 +122,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,16 +152,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,14 +199,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,52 +241,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -254,187 +257,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,6 +467,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -478,26 +505,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,45 +563,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -568,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +583,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,21 +1051,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="6" max="7" width="13.5" customWidth="1"/>
-    <col min="10" max="11" width="9" style="2"/>
+    <col min="3" max="4" width="19" customWidth="1"/>
+    <col min="7" max="8" width="13.5" customWidth="1"/>
+    <col min="11" max="12" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1079,13 +1082,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -1094,150 +1097,170 @@
         <v>7</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>100</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4">
         <v>3.14</v>
       </c>
       <c r="D2" s="4">
+        <v>1.602176</v>
+      </c>
+      <c r="E2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>100</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2">
+      <c r="J2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>200</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4">
         <v>1.2</v>
       </c>
       <c r="D3" s="4">
+        <v>3.14159</v>
+      </c>
+      <c r="E3" s="4">
         <v>100</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
         <v>90</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="J3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
